--- a/data/results_params.xlsx
+++ b/data/results_params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts python\SimTapTap\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3C7858-2C38-4875-9553-B1BCA390CFCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA813D4-1902-48A3-A4E5-D854813A294F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="187">
   <si>
     <t>pos</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>HellDisasterO6</t>
+  </si>
+  <si>
+    <t>Skuld</t>
   </si>
 </sst>
 </file>
@@ -989,9 +992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD44"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AD36" sqref="AD36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3116,7 +3121,7 @@
         <v>86</v>
       </c>
       <c r="F24">
-        <v>0.50624999999999998</v>
+        <v>0.54849999999999999</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3188,7 +3193,7 @@
         <v>167</v>
       </c>
       <c r="AD24">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
@@ -4113,22 +4118,22 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
         <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="F35">
-        <v>0.48093750000000002</v>
+        <v>0.77275000000000005</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4164,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="R35">
-        <v>0.489375</v>
+        <v>0.55343750000000003</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4173,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>0.450625</v>
+        <v>0.52</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -4185,42 +4190,42 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>0.48093750000000002</v>
+        <v>0.54249999999999998</v>
       </c>
       <c r="Z35">
-        <v>0.4559375</v>
+        <v>0.50843749999999999</v>
       </c>
       <c r="AA35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AB35" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="AC35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AD35">
-        <v>0.3</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
         <v>78</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F36">
-        <v>0.51968749999999997</v>
+        <v>0.48093750000000002</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -4256,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>0.51500000000000001</v>
+        <v>0.489375</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -4265,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>0.51906249999999998</v>
+        <v>0.450625</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -4277,42 +4282,42 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>0.51968749999999997</v>
+        <v>0.48093750000000002</v>
       </c>
       <c r="Z36">
-        <v>0.46937499999999999</v>
+        <v>0.4559375</v>
       </c>
       <c r="AA36" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AB36" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="AC36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD36">
-        <v>5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
         <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F37">
-        <v>0.79093749999999996</v>
+        <v>0.51968749999999997</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -4336,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0.78093749999999995</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -4348,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -4357,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>0.77593749999999995</v>
+        <v>0.51906249999999998</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -4369,42 +4374,42 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>0.79093749999999996</v>
+        <v>0.51968749999999997</v>
       </c>
       <c r="Z37">
-        <v>0.69312499999999999</v>
+        <v>0.46937499999999999</v>
       </c>
       <c r="AA37" t="s">
         <v>103</v>
       </c>
       <c r="AB37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AD37">
-        <v>6.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>72</v>
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F38">
-        <v>0.53218750000000004</v>
+        <v>0.79093749999999996</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -4428,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0.52031249999999996</v>
+        <v>0.78093749999999995</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -4449,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>0.520625</v>
+        <v>0.77593749999999995</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -4461,42 +4466,42 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>0.53218750000000004</v>
+        <v>0.79093749999999996</v>
       </c>
       <c r="Z38">
-        <v>0.49</v>
+        <v>0.69312499999999999</v>
       </c>
       <c r="AA38" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AB38" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="AC38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" t="s">
         <v>78</v>
       </c>
-      <c r="E39" t="s">
-        <v>86</v>
-      </c>
       <c r="F39">
-        <v>0.54249999999999998</v>
+        <v>0.53218750000000004</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4520,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>0.52031249999999996</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -4532,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="R39">
-        <v>0.55343750000000003</v>
+        <v>0</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -4541,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>0.52</v>
+        <v>0.520625</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -4553,27 +4558,27 @@
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>0.54249999999999998</v>
+        <v>0.53218750000000004</v>
       </c>
       <c r="Z39">
-        <v>0.50843749999999999</v>
+        <v>0.49</v>
       </c>
       <c r="AA39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB39" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="AC39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AD39">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -4585,10 +4590,10 @@
         <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F40">
-        <v>0.47031250000000002</v>
+        <v>0.54249999999999998</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -4624,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="R40">
-        <v>0.46437499999999998</v>
+        <v>0.55343750000000003</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -4633,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>0.426875</v>
+        <v>0.52</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4645,42 +4650,42 @@
         <v>0</v>
       </c>
       <c r="Y40">
-        <v>0.47031250000000002</v>
+        <v>0.54249999999999998</v>
       </c>
       <c r="Z40">
-        <v>0.45218750000000002</v>
+        <v>0.50843749999999999</v>
       </c>
       <c r="AA40" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="AB40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD40">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>76</v>
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F41">
-        <v>0.424375</v>
+        <v>0.47031250000000002</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4716,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>0.46437499999999998</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -4725,10 +4730,10 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>0.42843750000000003</v>
+        <v>0.426875</v>
       </c>
       <c r="V41">
-        <v>0.43562499999999998</v>
+        <v>0</v>
       </c>
       <c r="W41">
         <v>0</v>
@@ -4737,42 +4742,42 @@
         <v>0</v>
       </c>
       <c r="Y41">
-        <v>0.41593750000000002</v>
+        <v>0.47031250000000002</v>
       </c>
       <c r="Z41">
-        <v>0.39374999999999999</v>
+        <v>0.45218750000000002</v>
       </c>
       <c r="AA41" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AB41" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="AC41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>72</v>
+        <v>5</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F42">
-        <v>0.48062500000000002</v>
+        <v>0.424375</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4808,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="R42">
-        <v>0.48781249999999998</v>
+        <v>0</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -4817,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>0.48406250000000001</v>
+        <v>0.42843750000000003</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>0.43562499999999998</v>
       </c>
       <c r="W42">
         <v>0</v>
@@ -4829,42 +4834,42 @@
         <v>0</v>
       </c>
       <c r="Y42">
-        <v>0.48062500000000002</v>
+        <v>0.41593750000000002</v>
       </c>
       <c r="Z42">
-        <v>0.45531250000000001</v>
+        <v>0.39374999999999999</v>
       </c>
       <c r="AA42" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="AB42" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="AC42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AD42">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>74</v>
+      <c r="C43" t="s">
+        <v>72</v>
       </c>
       <c r="D43" t="s">
         <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F43">
-        <v>0.44500000000000001</v>
+        <v>0.48062500000000002</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4900,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="R43">
-        <v>0.43187500000000001</v>
+        <v>0.48781249999999998</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -4909,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>0.43531249999999999</v>
+        <v>0.48406250000000001</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -4921,33 +4926,33 @@
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>0.44500000000000001</v>
+        <v>0.48062500000000002</v>
       </c>
       <c r="Z43">
-        <v>0.42031249999999998</v>
+        <v>0.45531250000000001</v>
       </c>
       <c r="AA43" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="AB43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AC43" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="AD43">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
-        <v>77</v>
+      <c r="C44" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D44" t="s">
         <v>78</v>
@@ -4956,75 +4961,167 @@
         <v>80</v>
       </c>
       <c r="F44">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0.43187500000000001</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0.43531249999999999</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="Z44">
+        <v>0.42031249999999998</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD44">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45">
         <v>0.43718750000000001</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
         <v>0.44500000000000001</v>
       </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
         <v>0.43781249999999999</v>
       </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
         <v>0.43718750000000001</v>
       </c>
-      <c r="Z44">
+      <c r="Z45">
         <v>0.43187500000000001</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AA45" t="s">
         <v>116</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AB45" t="s">
         <v>151</v>
       </c>
-      <c r="AD44">
+      <c r="AD45">
         <v>0.5</v>
       </c>
     </row>
